--- a/cfg/新建 XLSX 工作表.xlsx
+++ b/cfg/新建 XLSX 工作表.xlsx
@@ -16,27 +16,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>测试表1</t>
   </si>
   <si>
+    <t>q_id</t>
+  </si>
+  <si>
+    <t>q_name</t>
+  </si>
+  <si>
+    <t>q_sss</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
-    <t>q_id</t>
-  </si>
-  <si>
-    <t>q_name</t>
+    <t>boolen</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>空格测试 回车测试
+是是是</t>
   </si>
   <si>
     <t>"1"</t>
@@ -85,8 +95,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,6 +109,43 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,44 +175,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -257,6 +266,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -276,30 +309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,28 +562,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,40 +592,40 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,10 +637,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,22 +658,22 @@
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,16 +682,16 @@
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,16 +700,19 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -754,6 +766,18 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1050,49 +1074,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1100,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1108,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1116,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1124,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1132,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1140,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1148,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1156,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1164,7 +1200,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1172,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1180,7 +1216,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1188,7 +1224,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1196,10 +1232,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/cfg/新建 XLSX 工作表.xlsx
+++ b/cfg/新建 XLSX 工作表.xlsx
@@ -36,7 +36,7 @@
     <t>String</t>
   </si>
   <si>
-    <t>boolen</t>
+    <t>boolean</t>
   </si>
   <si>
     <t>id</t>
@@ -95,8 +95,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -120,37 +120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -174,6 +143,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -266,6 +266,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -285,30 +309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,10 +577,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,37 +595,37 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,7 +637,7 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,40 +667,40 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
